--- a/biology/Médecine/Institut_scientifique_de_santé_publique/Institut_scientifique_de_santé_publique.xlsx
+++ b/biology/Médecine/Institut_scientifique_de_santé_publique/Institut_scientifique_de_santé_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_scientifique_de_sant%C3%A9_publique</t>
+          <t>Institut_scientifique_de_santé_publique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut scientifique de santé publique (en néerlandais : Wetenschappelijk Instituut Volksgezondheid) (WIV-ISP) est un établissement scientifique fédéral belge, lié au Service public fédéral Santé publique, Sécurité de la chaîne alimentaire et Environnement. Son siège social est situé rue Juliette Wytsman 14, à Bruxelles. Il a fusionné en 2018 avec le Centre d’Étude et de Recherches Vétérinaires et Agrochimiques (CERVA) pour former Sciensano, le nouvel Institut national de santé publique en Belgique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_scientifique_de_sant%C3%A9_publique</t>
+          <t>Institut_scientifique_de_santé_publique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'institut mène une politique qui répond au cadre légal et aux priorités du Ministre fédéral de la Santé publique et du Président du SPF Santé publique, Sécurité de la chaîne alimentaire et Environnement.
 Le WIV-ISP assure un soutien à la politique de santé publique grâce à la recherche scientifique, à des avis d’experts et à des tâches de services. Sur la base de recherches scientifiques, le WIV-ISP formule des recommandations et des solutions quant aux priorités pour une politique de santé proactive aux niveaux belge, européen et international.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_scientifique_de_sant%C3%A9_publique</t>
+          <t>Institut_scientifique_de_santé_publique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Structure et expertise</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 26 août 2008, le Moniteur belge fixe un arrêté définissant la structure de l’institut en quatre directions scientifiques :
 Santé publique et surveillance ;
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_scientifique_de_sant%C3%A9_publique</t>
+          <t>Institut_scientifique_de_santé_publique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,8 +612,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Années 1800-1980
-En 1897, lors de l’exposition universelle au Cinquantenaire à Bruxelles, un service d’hygiène est créé par crainte d’une éventuelle épidémie de choléra.
+          <t>Années 1800-1980</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1897, lors de l’exposition universelle au Cinquantenaire à Bruxelles, un service d’hygiène est créé par crainte d’une éventuelle épidémie de choléra.
 Ce service sera à l’origine de l’ISP qui restera au Cinquantenaire jusqu’en 1957.
 Cependant, les premiers documents officiels se rapportant à l’année 1904, l’institut a choisi cette date de référence pour fêter son premier centenaire en 2004.
 Au cours des années suivantes, des sections de bactériologie, de chimie et de contrôle des médicaments sont créées.
@@ -607,24 +628,129 @@
 En 1957 a lieu le transfert de tous les services du Cinquantenaire vers la rue Juliette Wytsman à Ixelles dans un bâtiment nouvellement construit et considéré à l’époque comme nettement trop grand.
 En 1968, grâce à l’Arrêté royal du 6 mars 1968, l’ISP devient un établissement scientifique de l'État sous le nom de « Institut d'hygiène et d’épidémiologie » (IHE), nom qu’il portera jusqu’en 1996. L’institut compte alors plus ou moins 140 membres du personnel.
 La période 1970-1980 doit être considérée comme la période d’expansion de l’ISP, surtout dans le domaine de l’environnement. L’institut compte alors 530 collaborateurs.
-Années 1980-1990
-La période 1980-1988, par contre, voit diminuer les moyens de l’institut aussi bien en personnel qu’en budget.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Institut_scientifique_de_santé_publique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_scientifique_de_sant%C3%A9_publique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 1980-1990</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période 1980-1988, par contre, voit diminuer les moyens de l’institut aussi bien en personnel qu’en budget.
 En 1987, un Arrêté royal accorde la personnalité juridique (patrimoine) à l’ISP, créant ainsi la possibilité d’une nouvelle expansion. C’est également en 1987 qu’une décision est prise concernant la fermeture des antennes provinciales que l’ISP possédait dans la plupart des provinces.
 Les années 1989 et 1990 correspondent à la période la plus perturbée de l’existence de l’ISP. En effet, la loi spéciale du 16 janvier 1989 transfère 30 % du budget de l’ISP vers les Communautés et 10 % vers les Régions. Les négociations pour que les Communautés et les Régions réinvestissent ce budget dans des activités de l’ISP ont duré plus d’un an. Avec effet rétroactif, un accord de coopération est conclu entre le National, les Communautés et les Régions pour la période 1990-1994.
-Années 1990-2000
-En 1993, l’ISP doit évacuer de l’ancien hôpital militaire situé avenue de la Couronne, où au moins 1/3 des activités de l’ISP étaient exercées. Comme il s’agissait essentiellement des sections Air et Eau de l’ISP, qui traitaient une matière de compétence régionale, le gouvernement décide de transférer ces deux sections ainsi que leur personnel vers les trois Régions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Institut_scientifique_de_santé_publique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_scientifique_de_sant%C3%A9_publique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Années 1990-2000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1993, l’ISP doit évacuer de l’ancien hôpital militaire situé avenue de la Couronne, où au moins 1/3 des activités de l’ISP étaient exercées. Comme il s’agissait essentiellement des sections Air et Eau de l’ISP, qui traitaient une matière de compétence régionale, le gouvernement décide de transférer ces deux sections ainsi que leur personnel vers les trois Régions.
 En 1995, un nouvel accord de coopération est conclu pour la période 1995-1999. Cette fois, entre l’Autorité fédérale et les Communautés.
 À partir de fin 1995, des discussions ont lieu sur une fusion éventuelle entre l’ISP et l’Institut Pasteur (IP), qui avait été transféré de la Province de Brabant vers le niveau fédéral, à la suite de la scission de la Province de Brabant.
 Fin 1996, dans le cadre de la fusion prévue avec l’Institut Pasteur, la décision d’un changement de nom est prise : l'« Institut d'hygiène et d'épidémiologie » (IHE) devient l'« Institut scientifique de la santé publique - Louis Pasteur » (A.R. du 17/10/1996).
 En 1997, l'Unité de gestion du modèle mathématique de la mer du Nord (UGMM) est transférée de l'ISP vers l'Institut royal des sciences naturelles de Belgique.
-Années 2000-2010
-En 2001, le SPF (Service public fédéral) Santé publique, Sécurité de la chaîne alimentaire et Environnement est créé. Ses compétences proviennent de l’ancien ministère des Affaires sociales, de la Santé publique et de l’Environnement, ainsi que du ministère de l’Agriculture, régionalisé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Institut_scientifique_de_santé_publique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_scientifique_de_sant%C3%A9_publique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Années 2000-2010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, le SPF (Service public fédéral) Santé publique, Sécurité de la chaîne alimentaire et Environnement est créé. Ses compétences proviennent de l’ancien ministère des Affaires sociales, de la Santé publique et de l’Environnement, ainsi que du ministère de l’Agriculture, régionalisé.
 En 2002, l’ISP, qui avait élaboré depuis une dizaine d’années un système qualité, est accrédité par Beltest (actuellement BELAC) pour la plupart de ses activités selon la norme ISO 17025.
 L'arrêté royal du 11 juillet 2003 (MB 29/09/2003) modifie le nom de l’Institut en « Institut scientifique de santé publique » (ISP).
 Finalement, en septembre 2003, la fusion avec l’Institut Pasteur devient une réalité légale. Il devient le quatrième département de l’ISP, les trois autres étant les départements de Microbiologie, de Pharmaco-Bromatologie et d’Épidémiologie-Toxicologie.
 En octobre 2004, l'ISP célèbre son centenaire.
 En 2006, un important projet de restructuration (BPR) débute à l'ISP sous le nom de Projet Jenner. Au départ d’une fine analyse de la situation actuelle, des projets de réorganisation sont progressivement implémentés dans les années à venir.
-Pour plus de renseignements :  Rapport d’activités 2007-2008[1].
+Pour plus de renseignements :  Rapport d’activités 2007-2008.
 En janvier 2007, l’Institut se dote d’une nouvelle identité visuelle.
 Le 26 août 2008, le Moniteur belge fixe un arrêté définissant la structure de l’institut en quatre directions scientifiques (anciennement « départements ») :
 Santé publique et surveillance ;
@@ -633,8 +759,43 @@
 Expertise, prestations de service et relations clients.
 L’institut prend communément l’abréviation bilingue de « WIV-ISP »
 Le 13 novembre 2008, le WIV-ISP devient, dans son intégralité, membre correspondant du réseau international des instituts Pasteur.
-Après 2018
-Le 1er avril 2018, l'Institut fusionne avec le Centre d’Étude et de Recherches Vétérinaires et Agrochimiques (CERVA) pour former Sciensano, le nouvel Institut national de santé publique en Belgique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Institut_scientifique_de_santé_publique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_scientifique_de_sant%C3%A9_publique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Après 2018</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er avril 2018, l'Institut fusionne avec le Centre d’Étude et de Recherches Vétérinaires et Agrochimiques (CERVA) pour former Sciensano, le nouvel Institut national de santé publique en Belgique.
 Le rôle de Sciensano dans la prévention et la lutte contre les épidémies est révélé au grand public en 2020, lors de l'épidémie de Covid19. Les communiqués quotidiens de Sciensano, détaillant notamment le nombre de personnes hospitalisées et décédées, rythment les journées de la Belgique confinée.
 </t>
         </is>
